--- a/biology/Zoologie/Celmia_anastomosis/Celmia_anastomosis.xlsx
+++ b/biology/Zoologie/Celmia_anastomosis/Celmia_anastomosis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia anastomosis est un papillon de la famille des Lycaenidae, de la sous-famille des Theclinae et du genre Celmia.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celmia anastomosis a été décrit par Max Wilhelm Karl Draudt en 1918 sous le nom initial de Thecla anastomosis[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia anastomosis a été décrit par Max Wilhelm Karl Draudt en 1918 sous le nom initial de Thecla anastomosis.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Celmia anastomosis est un petit papillon aux pattes et aux antennes cerclés de blanc et noir, avec deux fine et courtes queues à chaque aile postérieure.
 Sur le dessus les ailes sont noires avec aux ailes antérieures une plage bleu outremer le long du bord interne alors que les ailes postérieures sont noires avec une plage triangulaire  bleu outremer.
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -601,14 +619,50 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Celmia anastomosis est présent au Brésil, en Guyana et en Guyane[1],[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Celmia anastomosis est présent au Brésil, en Guyana et en Guyane.
 Sur les autres projets Wikimedia :
 Celmia anastomosis, sur Wikimedia CommonsCelmia anastomosis, sur Wikispecies
-Biotope
-Protection
-Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Celmia_anastomosis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Celmia_anastomosis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
